--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657600.4901868494</v>
+        <v>666293.8164744913</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584669</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7650268.833640747</v>
+        <v>7650268.833640748</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35.14216764492971</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>132.1650052697847</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,64 +902,64 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>77.18032238670132</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>217.7362671562299</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>326.2575215723778</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>170.5789839821614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>120.501821141439</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>100.053298877208</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1546,10 +1546,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>299.2527115533157</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>388.8221594182918</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.136888730010115</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>111.3550458383074</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.20428959175573</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>321.2428177511501</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.37669028362031</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>43.3560697996877</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>362.4150396299758</v>
+        <v>304.1524582250537</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>6.415733460898577</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
@@ -2208,16 +2208,16 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.8378640993551</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>99.74218946610104</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,10 +2333,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>244.2087936222227</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,10 +2412,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>67.30996878196338</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>48.23721201220846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>156.8482076906872</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>275.0713641085141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>158.4600899654651</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.38391736390409</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>122.3078802415591</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>136.4417058702716</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>320.9248936757977</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -2849,13 +2849,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>6.45683482408856</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>156.2207054539201</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2928,7 +2928,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.99752067737377</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>187.9216174196137</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>56.33496328232278</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>90.0384386340216</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3126,7 +3126,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>61.12808787351305</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>15.4024934946316</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>110.970532483588</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>268.7418428881282</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>374.6143090237686</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>138.854596704958</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>99.0394663168247</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>95.96326970426315</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>197.6018622437328</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>255.6560356462723</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>110.4121589885048</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>263.3721600196624</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>93.9072774276074</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.216845019288</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>63.03837291520244</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>41.75264723147848</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.0263176067415</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>241.5840574795222</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>117.3675946049459</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>36.8832652443885</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>7.470667384472012</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>21.82566718494987</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>149.7232056537455</v>
       </c>
     </row>
   </sheetData>
@@ -4349,28 +4349,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.0779112883388</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>145.0779112883388</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>145.0779112883388</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>145.0779112883388</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0779112883388</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>145.0779112883388</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>353.783681549942</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>521.0535470733607</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>313.2932483084068</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>97.99519736572705</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>97.99519736572705</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>97.99519736572705</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>97.99519736572705</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V8" t="n">
-        <v>509.4769954460863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W8" t="n">
-        <v>266.0282188019862</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X8" t="n">
-        <v>22.57944215788615</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>508.9694238887622</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C9" t="n">
-        <v>508.9694238887622</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D9" t="n">
-        <v>508.9694238887622</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4893,13 +4893,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>744.121532120505</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>508.9694238887622</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>508.9694238887622</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>508.9694238887622</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.9694238887622</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.181164129222</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="C11" t="n">
-        <v>2087.181164129222</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="E11" t="n">
         <v>1371.839859437666</v>
@@ -5039,16 +5039,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5066,25 +5066,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.181164129222</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.181164129222</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.181164129222</v>
+        <v>1544.141863460052</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>982.9090180005296</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>808.4559887194026</v>
+        <v>560.8574924864815</v>
       </c>
       <c r="D12" t="n">
-        <v>659.5215790581514</v>
+        <v>411.9230828252303</v>
       </c>
       <c r="E12" t="n">
-        <v>500.2841240526959</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F12" t="n">
-        <v>353.7495660795809</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G12" t="n">
-        <v>215.6746802122729</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5118,52 +5118,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2284.306083296871</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2056.125618951029</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1820.973510719286</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1566.736153991084</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1358.884653785552</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1151.124355020598</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F13" t="n">
         <v>570.9156784273715</v>
@@ -5200,49 +5200,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>349.1704626571147</v>
+        <v>1605.38132674798</v>
       </c>
       <c r="C14" t="n">
-        <v>46.89499644164432</v>
+        <v>1236.418809807569</v>
       </c>
       <c r="D14" t="n">
-        <v>46.89499644164432</v>
+        <v>1236.418809807569</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>850.6305572093245</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>439.6446524197169</v>
       </c>
       <c r="G14" t="n">
         <v>46.89499644164432</v>
@@ -5300,28 +5300,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1796.607095507691</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1465.54420816412</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1112.775552894006</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X14" t="n">
-        <v>739.3097946329265</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y14" t="n">
-        <v>349.1704626571147</v>
+        <v>1991.981166812102</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5355,7 +5355,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
         <v>273.1268607498447</v>
@@ -5400,7 +5400,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.1084007401373</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5473,13 +5473,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H17" t="n">
         <v>212.2335778049849</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2299.088923504685</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.893810642661</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2115.893810642661</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U17" t="n">
-        <v>2115.893810642661</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.893810642661</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="W17" t="n">
-        <v>2115.893810642661</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="X17" t="n">
-        <v>2115.893810642661</v>
+        <v>1431.630582087519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>1041.491250111708</v>
       </c>
     </row>
     <row r="18">
@@ -5616,25 +5616,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.95990094567</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
         <v>1157.094557224842</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I19" t="n">
         <v>46.89499644164432</v>
@@ -5701,22 +5701,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>90.68900634031877</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>90.68900634031877</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>515.4926565726222</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568.010650042283</v>
+        <v>849.8068924087756</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.010650042283</v>
+        <v>849.8068924087756</v>
       </c>
       <c r="D20" t="n">
-        <v>1209.744951435532</v>
+        <v>849.8068924087756</v>
       </c>
       <c r="E20" t="n">
-        <v>823.9566988372881</v>
+        <v>849.8068924087756</v>
       </c>
       <c r="F20" t="n">
-        <v>412.9707940476805</v>
+        <v>849.8068924087756</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X20" t="n">
-        <v>2344.749822082216</v>
+        <v>1239.946224384587</v>
       </c>
       <c r="Y20" t="n">
-        <v>1954.610490106405</v>
+        <v>849.8068924087756</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>857.284873186858</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>682.831843905731</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>533.8974342444798</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>374.6599792390243</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>228.1254212659092</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
         <v>221.6448824165167</v>
@@ -5832,7 +5832,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
         <v>642.6780758583286</v>
@@ -5856,25 +5856,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V21" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W21" t="n">
-        <v>1441.112009177413</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X21" t="n">
-        <v>1233.26050897188</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>1025.500210206926</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5938,13 +5938,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>301.5794846475312</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W22" t="n">
         <v>46.89499644164432</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1345.864872018174</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C23" t="n">
-        <v>976.902355077762</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D23" t="n">
-        <v>976.902355077762</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E23" t="n">
-        <v>876.152668748367</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6011,28 +6011,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.393517622824</v>
+        <v>2098.07427296886</v>
       </c>
       <c r="V23" t="n">
-        <v>1719.330630279253</v>
+        <v>2098.07427296886</v>
       </c>
       <c r="W23" t="n">
-        <v>1719.330630279253</v>
+        <v>1745.305617698746</v>
       </c>
       <c r="X23" t="n">
-        <v>1345.864872018174</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="Y23" t="n">
-        <v>1345.864872018174</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>114.884863898173</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,49 +6069,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>2084.763385350902</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U24" t="n">
-        <v>1856.582921005059</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V24" t="n">
-        <v>1621.430812773317</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="25">
@@ -6175,22 +6175,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>449.3360404154141</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>449.3360404154141</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V25" t="n">
-        <v>449.3360404154141</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W25" t="n">
-        <v>449.3360404154141</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>449.3360404154141</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>228.543461271884</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1206.501278074326</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.501278074326</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="D26" t="n">
-        <v>1206.501278074326</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="E26" t="n">
-        <v>1206.501278074326</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>743.0166266946324</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>324.7448591775172</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6254,22 +6254,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2050.393517622824</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>1890.332820688011</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V26" t="n">
-        <v>1559.26993334444</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W26" t="n">
-        <v>1206.501278074326</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X26" t="n">
-        <v>1206.501278074326</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y26" t="n">
-        <v>1206.501278074326</v>
+        <v>1154.00253148424</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>843.8100588399052</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>669.3570295587782</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>520.4226198975269</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>361.1851648920714</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>214.6506069189564</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G27" t="n">
-        <v>76.57572105164846</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>76.57572105164846</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6312,7 +6312,7 @@
         <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6327,28 +6327,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6424,10 +6424,10 @@
         <v>318.3514033993496</v>
       </c>
       <c r="X28" t="n">
-        <v>90.36185250133229</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1070.372681976497</v>
+        <v>542.9805999678611</v>
       </c>
       <c r="C29" t="n">
-        <v>701.4101650360856</v>
+        <v>542.9805999678611</v>
       </c>
       <c r="D29" t="n">
-        <v>701.4101650360856</v>
+        <v>184.7149013611105</v>
       </c>
       <c r="E29" t="n">
-        <v>701.4101650360856</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F29" t="n">
-        <v>701.4101650360856</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6461,16 +6461,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1796.607095507691</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V29" t="n">
-        <v>1796.607095507691</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W29" t="n">
-        <v>1443.838440237577</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X29" t="n">
-        <v>1070.372681976497</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="Y29" t="n">
-        <v>1070.372681976497</v>
+        <v>929.5804400319828</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>682.5765037404603</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C30" t="n">
-        <v>508.1234744593334</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D30" t="n">
-        <v>359.1890647980821</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E30" t="n">
-        <v>199.9516097926266</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F30" t="n">
-        <v>53.41705181951156</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6540,25 +6540,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6567,25 +6567,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2183.516266982771</v>
+        <v>2186.951129704519</v>
       </c>
       <c r="T30" t="n">
-        <v>1983.973569036802</v>
+        <v>1987.40843175855</v>
       </c>
       <c r="U30" t="n">
-        <v>1755.793104690959</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="V30" t="n">
-        <v>1520.640996459217</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W30" t="n">
-        <v>1266.403639731015</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X30" t="n">
-        <v>1058.552139525482</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y30" t="n">
-        <v>850.7918407605284</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>2196.836728499823</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>2196.836728499823</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>2027.698788246332</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>1868.722225569746</v>
       </c>
       <c r="I31" t="n">
         <v>1783.87624508755</v>
@@ -6643,28 +6643,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>2190.391887156797</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>1973.696060662917</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1958.149982018095</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="C32" t="n">
-        <v>1589.187465077683</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D32" t="n">
-        <v>1230.921766470932</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E32" t="n">
-        <v>845.1335138726881</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F32" t="n">
-        <v>434.1476090830806</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6704,7 +6704,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376119</v>
@@ -6722,28 +6722,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.749822082216</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y32" t="n">
-        <v>2344.749822082216</v>
+        <v>465.1667639587595</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.1634746939509</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="C33" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6780,13 +6780,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
         <v>1486.172378671464</v>
@@ -6804,25 +6804,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2222.560539990292</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1297.139110478973</v>
+        <v>1190.401826708669</v>
       </c>
       <c r="Y33" t="n">
-        <v>1089.378811714019</v>
+        <v>982.6415279437147</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>1895.967692040669</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>1895.967692040669</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>1895.967692040669</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1895.967692040669</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>336.3121664786049</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>336.3121664786049</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>2116.760271184199</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>1895.967692040669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.544891781203</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C35" t="n">
-        <v>1194.544891781203</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D35" t="n">
-        <v>836.2791931744525</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E35" t="n">
-        <v>836.2791931744525</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F35" t="n">
-        <v>425.293288384845</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
         <v>46.89499644164432</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X35" t="n">
-        <v>1971.284063821136</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y35" t="n">
-        <v>1581.144731845325</v>
+        <v>415.857513382056</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>843.8100588399052</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>669.3570295587782</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>520.4226198975269</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>361.1851648920714</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>214.6506069189564</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7014,22 +7014,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
         <v>2344.749822082216</v>
@@ -7044,22 +7044,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.207124136247</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U36" t="n">
-        <v>1917.026659790404</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1681.874551558662</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1427.63719483046</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>1219.785694624927</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>1012.025395859973</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C37" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D37" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E37" t="n">
-        <v>459.8554798539171</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F37" t="n">
-        <v>312.9655323560067</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G37" t="n">
-        <v>143.8275921025162</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7132,13 +7132,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>408.1707327860751</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363102</v>
+        <v>408.1707327860751</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.7685734363102</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1324.15910409163</v>
+        <v>828.7376962564549</v>
       </c>
       <c r="C38" t="n">
-        <v>955.1965871512182</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="D38" t="n">
-        <v>955.1965871512182</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E38" t="n">
-        <v>569.4083345529739</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F38" t="n">
-        <v>158.4224297633663</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G38" t="n">
-        <v>158.4224297633663</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
-        <v>158.4224297633663</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T38" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U38" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V38" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.62486235271</v>
+        <v>1588.803294581656</v>
       </c>
       <c r="X38" t="n">
-        <v>1324.15910409163</v>
+        <v>1215.337536320577</v>
       </c>
       <c r="Y38" t="n">
-        <v>1324.15910409163</v>
+        <v>1215.337536320577</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7278,25 +7278,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7354,28 +7354,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>187.3781536425449</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V40" t="n">
-        <v>187.3781536425449</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>141.7508322271063</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>141.7508322271063</v>
       </c>
       <c r="E41" t="n">
         <v>46.89499644164432</v>
@@ -7409,13 +7409,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7439,22 +7439,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1881.113683906433</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1550.050796562862</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W41" t="n">
-        <v>1550.050796562862</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.050796562862</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1159.911464587051</v>
+        <v>897.3131892316399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C42" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D42" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7494,16 +7494,16 @@
         <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
         <v>2193.291384540003</v>
@@ -7512,28 +7512,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2141.341875839864</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1913.161411494021</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1678.009303262279</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1423.771946534077</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1215.920446328544</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.7442729519444</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="C43" t="n">
-        <v>194.8080900240374</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8080900240374</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7594,25 +7594,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U43" t="n">
-        <v>363.7442729519444</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V43" t="n">
-        <v>363.7442729519444</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W43" t="n">
-        <v>363.7442729519444</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="X43" t="n">
-        <v>363.7442729519444</v>
+        <v>163.0831960444136</v>
       </c>
       <c r="Y43" t="n">
-        <v>363.7442729519444</v>
+        <v>163.0831960444136</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1552.713549583553</v>
+        <v>1239.850682836179</v>
       </c>
       <c r="C44" t="n">
-        <v>1183.751032643141</v>
+        <v>1239.850682836179</v>
       </c>
       <c r="D44" t="n">
-        <v>825.4853340363909</v>
+        <v>881.584984229429</v>
       </c>
       <c r="E44" t="n">
-        <v>825.4853340363909</v>
+        <v>495.7967316311847</v>
       </c>
       <c r="F44" t="n">
-        <v>414.4994292467833</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G44" t="n">
-        <v>414.4994292467833</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
-        <v>84.15081992082463</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7652,10 +7652,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7679,19 +7679,19 @@
         <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2270.376276991246</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V44" t="n">
-        <v>1939.313389647675</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W44" t="n">
-        <v>1939.313389647675</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="X44" t="n">
-        <v>1939.313389647675</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="Y44" t="n">
-        <v>1939.313389647675</v>
+        <v>1626.450522900301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7752,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2284.306083296871</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.4242821121912</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C46" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D46" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E46" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F46" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G46" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H46" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J46" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L46" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T46" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U46" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V46" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W46" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X46" t="n">
-        <v>391.0727469424309</v>
+        <v>2116.760271184199</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.0727469424309</v>
+        <v>1965.52470991779</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108659</v>
       </c>
       <c r="M12" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L21" t="n">
-        <v>307.2673352605755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9717,7 +9717,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>162.5070303356325</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>309.7493254456951</v>
       </c>
       <c r="N27" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>254.8897585970532</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q36" t="n">
         <v>57.08896698613911</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954049</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.4978194579836</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X2" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22641,13 +22641,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>77.09327659156675</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>93.77637681119015</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,22 +22790,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>378.6650540150651</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22869,7 +22869,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>12.21631046471376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,7 +22911,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22926,7 +22926,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,13 +23063,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23078,16 +23078,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>62.17774896794338</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,19 +23154,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>8.20511492474489</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23227,7 +23227,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>28.42552004830515</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>211.3513860901004</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>52.20667784687673</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23346,13 +23346,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.910500182201389</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66.02018021769186</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>25.26689042365211</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23583,13 +23583,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>56.09151501264824</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23735,10 +23735,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.42552004830539</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>48.48828292731889</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23941,16 +23941,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>243.1669285369033</v>
+        <v>195.1698406415398</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>51.67401021196815</v>
+        <v>109.9365916168902</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24096,16 +24096,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>208.7815735241403</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>282.1881806061608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>7.039764271758486</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24300,10 +24300,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>38.65383027744605</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,7 +24345,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>203.4577711487111</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,22 +24415,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>68.77122993280824</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>51.97375912418499</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24494,22 +24494,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>92.78846792851613</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>37.65467069181017</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>45.13868060939656</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>175.5524658530037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>245.4886642019902</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>93.16415616614626</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,13 +24737,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24771,10 +24771,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>130.2373021845463</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24807,7 +24807,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3.400514094530109</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>55.08080495151781</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24883,13 +24883,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>37.69782020388175</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>357.7540865596212</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>296.199500022032</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,10 +25044,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>136.4191830929966</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>190.3704917088459</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>34.45051553934324</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
@@ -25129,19 +25129,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>17.5474909134079</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>39.47474081817535</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>247.3833419510956</v>
       </c>
     </row>
     <row r="36">
@@ -25245,10 +25245,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.65467069181017</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>61.42352734555772</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>88.92113609285818</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>109.6168561247353</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -25409,7 +25409,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>53.2730365612024</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25479,16 +25479,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25594,7 +25594,7 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25603,13 +25603,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>22.91717378187377</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>288.0230926446544</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25679,19 +25679,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>10.03171287469323</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>109.6701260731133</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,7 +25722,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>155.7946237350311</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>24.05200802215001</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25834,13 +25834,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>44.70527632201393</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,16 +25865,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>289.5084511367655</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>126.8019303053187</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25919,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25959,10 +25959,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>190.0766035820376</v>
       </c>
       <c r="U45" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>145.421153913678</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26071,7 +26071,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
         <v>225.6194376234954</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>68.86144769834928</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>726861.5338570686</v>
+        <v>726861.5338570684</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726861.5338570684</v>
+        <v>726861.5338570685</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726861.533857068</v>
+        <v>726861.5338570684</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>726861.5338570683</v>
+        <v>726861.5338570684</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>726861.5338570685</v>
+        <v>726861.5338570683</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726861.5338570684</v>
+        <v>726861.5338570686</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726861.5338570683</v>
+        <v>726861.5338570686</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>726861.5338570684</v>
+        <v>726861.5338570685</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726861.5338570685</v>
+        <v>726861.5338570684</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726861.5338570684</v>
+        <v>726861.5338570685</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726861.5338570684</v>
+        <v>726861.5338570685</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
-        <v>224719.6847995831</v>
+        <v>224719.684799583</v>
       </c>
       <c r="F2" t="n">
         <v>224719.684799583</v>
       </c>
       <c r="G2" t="n">
-        <v>224719.6847995831</v>
+        <v>224719.6847995832</v>
       </c>
       <c r="H2" t="n">
         <v>224719.6847995831</v>
@@ -26335,25 +26335,25 @@
         <v>224719.6847995831</v>
       </c>
       <c r="J2" t="n">
-        <v>224719.6847995831</v>
+        <v>224719.684799583</v>
       </c>
       <c r="K2" t="n">
         <v>224719.6847995831</v>
       </c>
       <c r="L2" t="n">
-        <v>224719.6847995831</v>
+        <v>224719.684799583</v>
       </c>
       <c r="M2" t="n">
         <v>224719.6847995831</v>
       </c>
       <c r="N2" t="n">
+        <v>224719.6847995832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>224719.6847995832</v>
+      </c>
+      <c r="P2" t="n">
         <v>224719.6847995831</v>
-      </c>
-      <c r="O2" t="n">
-        <v>224719.6847995831</v>
-      </c>
-      <c r="P2" t="n">
-        <v>224719.6847995832</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="F4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="H4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="K4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="L4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="P4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761898</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14104.04044283443</v>
+        <v>-13096.39685629613</v>
       </c>
       <c r="C6" t="n">
-        <v>66665.39108871331</v>
+        <v>67673.03467525161</v>
       </c>
       <c r="D6" t="n">
-        <v>66665.39108871331</v>
+        <v>67673.03467525163</v>
       </c>
       <c r="E6" t="n">
-        <v>-190878.6925238631</v>
+        <v>-189824.3999724352</v>
       </c>
       <c r="F6" t="n">
-        <v>154733.6502550896</v>
+        <v>155787.9428065175</v>
       </c>
       <c r="G6" t="n">
-        <v>154733.6502550897</v>
+        <v>155787.9428065176</v>
       </c>
       <c r="H6" t="n">
-        <v>154733.6502550897</v>
+        <v>155787.9428065176</v>
       </c>
       <c r="I6" t="n">
-        <v>154733.6502550896</v>
+        <v>155787.9428065176</v>
       </c>
       <c r="J6" t="n">
-        <v>91673.70765598341</v>
+        <v>92728.00020741127</v>
       </c>
       <c r="K6" t="n">
-        <v>154733.6502550896</v>
+        <v>155787.9428065175</v>
       </c>
       <c r="L6" t="n">
-        <v>154733.6502550897</v>
+        <v>155787.9428065175</v>
       </c>
       <c r="M6" t="n">
-        <v>68715.11643501364</v>
+        <v>69769.40898644154</v>
       </c>
       <c r="N6" t="n">
-        <v>154733.6502550897</v>
+        <v>155787.9428065176</v>
       </c>
       <c r="O6" t="n">
-        <v>154733.6502550897</v>
+        <v>155787.9428065176</v>
       </c>
       <c r="P6" t="n">
-        <v>154733.6502550897</v>
+        <v>155787.9428065176</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31756,43 +31756,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>156.722724872542</v>
       </c>
       <c r="M12" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -36200,10 +36200,10 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7110456222515</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36452,10 +36452,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>152.5357508595472</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685987</v>
       </c>
       <c r="N27" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36926,10 +36926,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,7 +37157,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37400,7 +37400,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>244.9184791209679</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183085</v>
       </c>
       <c r="N39" t="n">
         <v>516.8936174628016</v>
@@ -37640,7 +37640,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37786,7 +37786,7 @@
         <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107708</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
@@ -37862,7 +37862,7 @@
         <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
@@ -37874,7 +37874,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q42" t="n">
         <v>152.98832074971</v>
@@ -38020,7 +38020,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675625</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38035,7 +38035,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38114,7 +38114,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
